--- a/Real2020Entry1/forBot_StudentRequestList.xlsx
+++ b/Real2020Entry1/forBot_StudentRequestList.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jun/github/interviewScheduler/Real2020Entry1/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{27D32B68-A2C9-404C-9096-BA4411381242}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4FF94CEF-FBC5-2E48-A800-0DF205E8320F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="860" yWindow="460" windowWidth="27940" windowHeight="17540" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -30,9 +30,6 @@
     <t>Asterisk</t>
   </si>
   <si>
-    <t>Female or non-binary</t>
-  </si>
-  <si>
     <t>Xu, Angela</t>
   </si>
   <si>
@@ -196,6 +193,9 @@
   </si>
   <si>
     <t>Allard</t>
+  </si>
+  <si>
+    <t>W</t>
   </si>
 </sst>
 </file>
@@ -593,7 +593,7 @@
   <dimension ref="A1:D28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D27" sqref="D27"/>
+      <selection activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -604,21 +604,21 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
+        <v>53</v>
+      </c>
+      <c r="B1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" t="s">
+        <v>56</v>
+      </c>
+      <c r="D1" t="s">
         <v>54</v>
-      </c>
-      <c r="B1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" t="s">
-        <v>55</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B2">
         <v>0</v>
@@ -627,12 +627,12 @@
         <v>0</v>
       </c>
       <c r="D2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B3">
         <v>0</v>
@@ -641,12 +641,12 @@
         <v>1</v>
       </c>
       <c r="D3" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B4">
         <v>0</v>
@@ -655,12 +655,12 @@
         <v>0</v>
       </c>
       <c r="D4" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B5">
         <v>0</v>
@@ -669,12 +669,12 @@
         <v>1</v>
       </c>
       <c r="D5" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B6">
         <v>0</v>
@@ -683,12 +683,12 @@
         <v>1</v>
       </c>
       <c r="D6" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B7">
         <v>0</v>
@@ -697,12 +697,12 @@
         <v>0</v>
       </c>
       <c r="D7" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B8">
         <v>0</v>
@@ -711,12 +711,12 @@
         <v>0</v>
       </c>
       <c r="D8" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B9">
         <v>1</v>
@@ -725,12 +725,12 @@
         <v>0</v>
       </c>
       <c r="D9" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B10">
         <v>0</v>
@@ -739,12 +739,12 @@
         <v>1</v>
       </c>
       <c r="D10" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B11">
         <v>1</v>
@@ -753,12 +753,12 @@
         <v>1</v>
       </c>
       <c r="D11" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B12">
         <v>0</v>
@@ -767,12 +767,12 @@
         <v>1</v>
       </c>
       <c r="D12" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B13">
         <v>1</v>
@@ -781,12 +781,12 @@
         <v>1</v>
       </c>
       <c r="D13" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A14" s="1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B14">
         <v>0</v>
@@ -795,12 +795,12 @@
         <v>1</v>
       </c>
       <c r="D14" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A15" s="2" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B15">
         <v>0</v>
@@ -809,12 +809,12 @@
         <v>0</v>
       </c>
       <c r="D15" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A16" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B16">
         <v>0</v>
@@ -823,12 +823,12 @@
         <v>1</v>
       </c>
       <c r="D16" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A17" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B17">
         <v>0</v>
@@ -837,12 +837,12 @@
         <v>0</v>
       </c>
       <c r="D17" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A18" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B18">
         <v>0</v>
@@ -851,12 +851,12 @@
         <v>0</v>
       </c>
       <c r="D18" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A19" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B19">
         <v>0</v>
@@ -865,12 +865,12 @@
         <v>0</v>
       </c>
       <c r="D19" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A20" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B20">
         <v>0</v>
@@ -879,12 +879,12 @@
         <v>1</v>
       </c>
       <c r="D20" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A21" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B21">
         <v>0</v>
@@ -893,12 +893,12 @@
         <v>1</v>
       </c>
       <c r="D21" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A22" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B22">
         <v>0</v>
@@ -907,12 +907,12 @@
         <v>1</v>
       </c>
       <c r="D22" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A23" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B23">
         <v>0</v>
@@ -921,12 +921,12 @@
         <v>1</v>
       </c>
       <c r="D23" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A24" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B24">
         <v>0</v>
@@ -935,12 +935,12 @@
         <v>0</v>
       </c>
       <c r="D24" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A25" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B25">
         <v>0</v>
@@ -949,12 +949,12 @@
         <v>1</v>
       </c>
       <c r="D25" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A26" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B26">
         <v>0</v>
@@ -963,12 +963,12 @@
         <v>0</v>
       </c>
       <c r="D26" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A27" s="3" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B27">
         <v>0</v>
@@ -977,12 +977,12 @@
         <v>1</v>
       </c>
       <c r="D27" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A28" s="3" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B28">
         <v>0</v>
@@ -991,7 +991,7 @@
         <v>1</v>
       </c>
       <c r="D28" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
   </sheetData>

--- a/Real2020Entry1/forBot_StudentRequestList.xlsx
+++ b/Real2020Entry1/forBot_StudentRequestList.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jun/github/interviewScheduler/Real2020Entry1/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4FF94CEF-FBC5-2E48-A800-0DF205E8320F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{83F47FC2-47C2-3645-B103-7212C7DFDBF2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="860" yWindow="460" windowWidth="27940" windowHeight="17540" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="54">
   <si>
     <t>Asterisk</t>
   </si>
@@ -72,9 +72,6 @@
     <t>Nguyen, Nguyen</t>
   </si>
   <si>
-    <t>Shen, Jiayi</t>
-  </si>
-  <si>
     <t>Ward, Erica</t>
   </si>
   <si>
@@ -132,15 +129,9 @@
     <t>Rodriguez-Verdugo, Komarova, Wunderlich, Frank, Cinquin, Read, Wodarz</t>
   </si>
   <si>
-    <t xml:space="preserve">Allard, Collins, Komarova, Mjolsness, Siryaporn, Stern </t>
-  </si>
-  <si>
     <t>Reed, Lander, Schilling, Komarova, Wunderlich, Cinquin</t>
   </si>
   <si>
-    <t>Cho, Cinquin, Lander, Gardiner, Schilling, Nie, Arora</t>
-  </si>
-  <si>
     <t>Pierre Baldi, Alexander Ihler, Xiaohui Xie, Zoran Nenadic, Vivek Swarup, Roman Vershynin, Jack Xin, Babak Shahbaba</t>
   </si>
   <si>
@@ -162,9 +153,6 @@
     <t xml:space="preserve">Allard, Han Li, Clare Yu, Pritchard, Read, Siryaporn, Lowengrub, Grosberg, Thorsten Ritz </t>
   </si>
   <si>
-    <t>Emerson, Minin, Weining Shen, Swarup, Thornton, Zhaoxia Yu</t>
-  </si>
-  <si>
     <t>Ritz, Yu, Luo, Beier, Lander, Martens, Sanford</t>
   </si>
   <si>
@@ -192,10 +180,13 @@
     <t>Faculty names</t>
   </si>
   <si>
-    <t>Allard</t>
-  </si>
-  <si>
     <t>W</t>
+  </si>
+  <si>
+    <t>Allard, Collins, Komarova, Mjolsness, Siryaporn, Stern , Lander</t>
+  </si>
+  <si>
+    <t>Cho, Cinquin, Lander, Gardiner, Schilling, Nie, Arora, Downing</t>
   </si>
 </sst>
 </file>
@@ -590,35 +581,35 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D28"/>
+  <dimension ref="A1:D27"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C1" sqref="C1"/>
+    <sheetView tabSelected="1" zoomScale="91" workbookViewId="0">
+      <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="21" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11" customWidth="1"/>
+    <col min="4" max="4" width="97.83203125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="B1" t="s">
         <v>0</v>
       </c>
       <c r="C1" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
       <c r="D1" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B2">
         <v>0</v>
@@ -627,7 +618,7 @@
         <v>0</v>
       </c>
       <c r="D2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
@@ -641,12 +632,12 @@
         <v>1</v>
       </c>
       <c r="D3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B4">
         <v>0</v>
@@ -655,7 +646,7 @@
         <v>0</v>
       </c>
       <c r="D4" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.2">
@@ -669,7 +660,7 @@
         <v>1</v>
       </c>
       <c r="D5" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.2">
@@ -683,26 +674,23 @@
         <v>1</v>
       </c>
       <c r="D6" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B7">
         <v>0</v>
       </c>
       <c r="C7">
         <v>0</v>
-      </c>
-      <c r="D7" t="s">
-        <v>55</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B8">
         <v>0</v>
@@ -711,12 +699,12 @@
         <v>0</v>
       </c>
       <c r="D8" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B9">
         <v>1</v>
@@ -725,7 +713,7 @@
         <v>0</v>
       </c>
       <c r="D9" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.2">
@@ -739,7 +727,7 @@
         <v>1</v>
       </c>
       <c r="D10" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.2">
@@ -753,7 +741,7 @@
         <v>1</v>
       </c>
       <c r="D11" t="s">
-        <v>35</v>
+        <v>52</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.2">
@@ -767,7 +755,7 @@
         <v>1</v>
       </c>
       <c r="D12" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.2">
@@ -781,7 +769,7 @@
         <v>1</v>
       </c>
       <c r="D13" t="s">
-        <v>37</v>
+        <v>53</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.2">
@@ -795,12 +783,12 @@
         <v>1</v>
       </c>
       <c r="D14" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A15" s="2" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="B15">
         <v>0</v>
@@ -809,7 +797,7 @@
         <v>0</v>
       </c>
       <c r="D15" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.2">
@@ -823,12 +811,12 @@
         <v>1</v>
       </c>
       <c r="D16" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A17" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B17">
         <v>0</v>
@@ -837,12 +825,12 @@
         <v>0</v>
       </c>
       <c r="D17" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A18" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B18">
         <v>0</v>
@@ -851,12 +839,12 @@
         <v>0</v>
       </c>
       <c r="D18" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A19" s="2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B19">
         <v>0</v>
@@ -865,7 +853,7 @@
         <v>0</v>
       </c>
       <c r="D19" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.2">
@@ -879,12 +867,12 @@
         <v>1</v>
       </c>
       <c r="D20" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A21" s="1" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="B21">
         <v>0</v>
@@ -893,12 +881,12 @@
         <v>1</v>
       </c>
       <c r="D21" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A22" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B22">
         <v>0</v>
@@ -907,68 +895,65 @@
         <v>1</v>
       </c>
       <c r="D22" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A23" s="1" t="s">
-        <v>9</v>
+        <v>20</v>
       </c>
       <c r="B23">
         <v>0</v>
       </c>
       <c r="C23">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D23" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A24" s="1" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="B24">
         <v>0</v>
       </c>
       <c r="C24">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D24" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A25" s="1" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="B25">
         <v>0</v>
       </c>
       <c r="C25">
-        <v>1</v>
-      </c>
-      <c r="D25" t="s">
-        <v>49</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A26" s="1" t="s">
-        <v>22</v>
+      <c r="A26" s="3" t="s">
+        <v>1</v>
       </c>
       <c r="B26">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C26">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D26" t="s">
-        <v>55</v>
+        <v>46</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A27" s="3" t="s">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="B27">
         <v>0</v>
@@ -977,25 +962,11 @@
         <v>1</v>
       </c>
       <c r="D27" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A28" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="B28">
-        <v>0</v>
-      </c>
-      <c r="C28">
-        <v>1</v>
-      </c>
-      <c r="D28" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:G28">
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:G27">
     <sortCondition ref="A1"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Real2020Entry1/forBot_StudentRequestList.xlsx
+++ b/Real2020Entry1/forBot_StudentRequestList.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jun/github/interviewScheduler/Real2020Entry1/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{83F47FC2-47C2-3645-B103-7212C7DFDBF2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B858C0A7-A3FF-6A4B-9406-17BECDE5020C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="860" yWindow="460" windowWidth="27940" windowHeight="17540" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -584,7 +584,7 @@
   <dimension ref="A1:D27"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="91" workbookViewId="0">
-      <selection activeCell="D14" sqref="D14"/>
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -626,7 +626,7 @@
         <v>8</v>
       </c>
       <c r="B3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C3">
         <v>1</v>
